--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Angpt4</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.491365434354992</v>
+        <v>0.5282566666666667</v>
       </c>
       <c r="H2">
-        <v>0.491365434354992</v>
+        <v>1.58477</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8888516221232222</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8888516221232222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.70725526385441</v>
+        <v>64.74848166666668</v>
       </c>
       <c r="N2">
-        <v>64.70725526385441</v>
+        <v>194.245445</v>
       </c>
       <c r="O2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="P2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="Q2">
-        <v>31.79490858864316</v>
+        <v>34.20381709696112</v>
       </c>
       <c r="R2">
-        <v>31.79490858864316</v>
+        <v>307.83435387265</v>
       </c>
       <c r="S2">
-        <v>0.9531014902815595</v>
+        <v>0.8357300736769416</v>
       </c>
       <c r="T2">
-        <v>0.9531014902815595</v>
+        <v>0.8357300736769416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,557 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.491365434354992</v>
+        <v>0.5282566666666667</v>
       </c>
       <c r="H3">
-        <v>0.491365434354992</v>
+        <v>1.58477</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8888516221232222</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8888516221232222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18399863056452</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>3.18399863056452</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341096</v>
       </c>
       <c r="P3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341097</v>
       </c>
       <c r="Q3">
-        <v>1.564506870093035</v>
+        <v>1.721392845614445</v>
       </c>
       <c r="R3">
-        <v>1.564506870093035</v>
+        <v>15.49253561053</v>
       </c>
       <c r="S3">
-        <v>0.04689850971844054</v>
+        <v>0.04206021116339485</v>
       </c>
       <c r="T3">
-        <v>0.04689850971844054</v>
+        <v>0.04206021116339486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5282566666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.58477</v>
+      </c>
+      <c r="I4">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="J4">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.023043</v>
+      </c>
+      <c r="N4">
+        <v>0.069129</v>
+      </c>
+      <c r="O4">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P4">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q4">
+        <v>0.01217261837</v>
+      </c>
+      <c r="R4">
+        <v>0.10955356533</v>
+      </c>
+      <c r="S4">
+        <v>0.0002974236243388528</v>
+      </c>
+      <c r="T4">
+        <v>0.0002974236243388528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5282566666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.58477</v>
+      </c>
+      <c r="I5">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="J5">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.123247</v>
+      </c>
+      <c r="O5">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P5">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q5">
+        <v>0.02170201646555556</v>
+      </c>
+      <c r="R5">
+        <v>0.19531814819</v>
+      </c>
+      <c r="S5">
+        <v>0.0005302632676429658</v>
+      </c>
+      <c r="T5">
+        <v>0.000530263267642966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5282566666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.58477</v>
+      </c>
+      <c r="I6">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="J6">
+        <v>0.8888516221232222</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.378567</v>
+      </c>
+      <c r="O6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q6">
+        <v>0.4188312916211111</v>
+      </c>
+      <c r="R6">
+        <v>3.76948162459</v>
+      </c>
+      <c r="S6">
+        <v>0.01023365039090385</v>
+      </c>
+      <c r="T6">
+        <v>0.01023365039090385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.066057</v>
+      </c>
+      <c r="H7">
+        <v>0.198171</v>
+      </c>
+      <c r="I7">
+        <v>0.1111483778767777</v>
+      </c>
+      <c r="J7">
+        <v>0.1111483778767778</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N7">
+        <v>194.245445</v>
+      </c>
+      <c r="O7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q7">
+        <v>4.277090453455001</v>
+      </c>
+      <c r="R7">
+        <v>38.493814081095</v>
+      </c>
+      <c r="S7">
+        <v>0.1045056786982548</v>
+      </c>
+      <c r="T7">
+        <v>0.1045056786982548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.066057</v>
+      </c>
+      <c r="H8">
+        <v>0.198171</v>
+      </c>
+      <c r="I8">
+        <v>0.1111483778767777</v>
+      </c>
+      <c r="J8">
+        <v>0.1111483778767778</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N8">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P8">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q8">
+        <v>0.215255299891</v>
+      </c>
+      <c r="R8">
+        <v>1.937297699019</v>
+      </c>
+      <c r="S8">
+        <v>0.005259510280016104</v>
+      </c>
+      <c r="T8">
+        <v>0.005259510280016106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.066057</v>
+      </c>
+      <c r="H9">
+        <v>0.198171</v>
+      </c>
+      <c r="I9">
+        <v>0.1111483778767777</v>
+      </c>
+      <c r="J9">
+        <v>0.1111483778767778</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.023043</v>
+      </c>
+      <c r="N9">
+        <v>0.069129</v>
+      </c>
+      <c r="O9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q9">
+        <v>0.001522151451</v>
+      </c>
+      <c r="R9">
+        <v>0.013699363059</v>
+      </c>
+      <c r="S9">
+        <v>3.71919818389134E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.71919818389134E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.066057</v>
+      </c>
+      <c r="H10">
+        <v>0.198171</v>
+      </c>
+      <c r="I10">
+        <v>0.1111483778767777</v>
+      </c>
+      <c r="J10">
+        <v>0.1111483778767778</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.123247</v>
+      </c>
+      <c r="O10">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P10">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q10">
+        <v>0.002713775693</v>
+      </c>
+      <c r="R10">
+        <v>0.024423981237</v>
+      </c>
+      <c r="S10">
+        <v>6.630791976884606E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.630791976884609E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.066057</v>
+      </c>
+      <c r="H11">
+        <v>0.198171</v>
+      </c>
+      <c r="I11">
+        <v>0.1111483778767777</v>
+      </c>
+      <c r="J11">
+        <v>0.1111483778767778</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.378567</v>
+      </c>
+      <c r="O11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q11">
+        <v>0.052373666773</v>
+      </c>
+      <c r="R11">
+        <v>0.471363000957</v>
+      </c>
+      <c r="S11">
+        <v>0.001279688996899112</v>
+      </c>
+      <c r="T11">
+        <v>0.001279688996899112</v>
       </c>
     </row>
   </sheetData>
